--- a/Analysed/Analysis_Summary_Depth_pro_naive.xlsx
+++ b/Analysed/Analysis_Summary_Depth_pro_naive.xlsx
@@ -454,7 +454,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4.5652 ± 2.8414</t>
+          <t>4.2968 ± 2.3736</t>
         </is>
       </c>
     </row>
@@ -466,7 +466,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4.8157 ± 2.6677</t>
+          <t>4.5808 ± 2.2382</t>
         </is>
       </c>
     </row>
@@ -478,7 +478,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.4764 ± 0.0567</t>
+          <t>0.4878 ± 0.0702</t>
         </is>
       </c>
     </row>
@@ -493,7 +493,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,76 +531,114 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>V2_10 divisions_per_second</t>
+          <t>V1_5 divisions_per_second</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="C2" t="n">
-        <v>4.125999999999999</v>
+        <v>2.517916666666667</v>
       </c>
       <c r="D2" t="n">
-        <v>4.44386993509036</v>
+        <v>2.878846267749172</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3918918918918919</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>V3_17 divisions_per_second</t>
+          <t>V2_10 divisions_per_second</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="C3" t="n">
-        <v>8.666315789473682</v>
+        <v>4.125999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>8.679107400139596</v>
+        <v>4.44386993509036</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5135135135135135</v>
+        <v>0.3918918918918919</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>V4_33 divisions_per_second</t>
+          <t>V3_17 divisions_per_second</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C4" t="n">
-        <v>3.236285714285715</v>
+        <v>8.666315789473682</v>
       </c>
       <c r="D4" t="n">
-        <v>3.378723765819615</v>
+        <v>8.679107400139596</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5</v>
+        <v>0.5135135135135135</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>V4_33 divisions_per_second</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>35</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3.236285714285715</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.378723765819615</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>V5_50 divisions_per_second</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>28</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5.001785714285716</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.343128765058916</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5925925925925926</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>V6_100 divisions_per_second</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B7" t="n">
         <v>17</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C7" t="n">
         <v>2.232352941176471</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D7" t="n">
         <v>2.761207110283897</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E7" t="n">
         <v>0.5</v>
       </c>
     </row>
